--- a/medicine/Mort/Cimetière_national_de_Calverton/Cimetière_national_de_Calverton.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Calverton/Cimetière_national_de_Calverton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Calverton</t>
+          <t>Cimetière_national_de_Calverton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le cimetière national de Calverton (en anglais : Calverton National Cemetery) est un cimetière national américain, situé à l'est de l'île de Long Island à Calverton dans le comté de Suffolk (New York). Il a une superficie de 1 045 acres et à fin 2005 comptait 187 662 tombes.
 Il est le plus vaste et le plus actif (en nombre d'enterrements journaliers) cimetière national des États-Unis.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Calverton</t>
+          <t>Cimetière_national_de_Calverton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Calverton National Cemetery » (voir la liste des auteurs).</t>
         </is>
